--- a/Carlos trieno.xlsx
+++ b/Carlos trieno.xlsx
@@ -85,6 +85,11 @@
       </left>
     </border>
     <border>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="00000000"/>
       </left>
@@ -104,11 +109,6 @@
       <right style="thick">
         <color rgb="00000000"/>
       </right>
-    </border>
-    <border>
-      <right style="thick">
-        <color rgb="00000000"/>
-      </right>
       <bottom style="thick">
         <color rgb="00000000"/>
       </bottom>
@@ -122,16 +122,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -967,6 +967,181 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="190500" cy="190500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1269,7 +1444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,82 +1452,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Aluno:</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Carlos</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Data de Ínicio:</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>10/12/2022</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>Objetivo:</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>Ganho de massa muscular</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Dias da semana:</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Indefinido </t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Observação:</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>2º treino adaptativo</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Treino:</t>
         </is>
       </c>
-      <c r="B6" s="6" t="inlineStr">
+      <c r="D6" s="6" t="inlineStr">
         <is>
           <t>Força</t>
         </is>
@@ -2503,13 +2678,106 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="7" t="inlineStr">
+        <is>
+          <t>PÓS TREINO TODOS OS DIAS</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="9" t="inlineStr">
+        <is>
+          <t>30 MIN ESTEIRA ( VELOCIDADE MINIMA 6.0 )</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" s="9" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>ABDOMINAL BICICLETA 3X40SEG</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" s="9" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B47" s="9" t="inlineStr">
+        <is>
+          <t>5MIN CORRENDO ESTEIRA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" s="9" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>ABDOMINAL CRUNCH 3X25</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" s="9" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B49" s="9" t="inlineStr">
+        <is>
+          <t>ELEVAÇÃO DE PERNAS 3X10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" s="9" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
+        <is>
+          <t>PRANCHA ISOMETRICA 3XRM</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" s="9" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>GIRO RUSSO 3X50SEG</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" s="9" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="H9:H14"/>
     <mergeCell ref="H16:H21"/>
     <mergeCell ref="H23:H28"/>
     <mergeCell ref="H30:H35"/>
     <mergeCell ref="H37:H42"/>
+    <mergeCell ref="A44:C44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1"/>
@@ -2542,8 +2810,15 @@
     <hyperlink ref="F40" r:id="rId28"/>
     <hyperlink ref="F41" r:id="rId29"/>
     <hyperlink ref="F42" r:id="rId30"/>
+    <hyperlink ref="C45" r:id="rId31"/>
+    <hyperlink ref="C46" r:id="rId32"/>
+    <hyperlink ref="C47" r:id="rId33"/>
+    <hyperlink ref="C48" r:id="rId34"/>
+    <hyperlink ref="C49" r:id="rId35"/>
+    <hyperlink ref="C50" r:id="rId36"/>
+    <hyperlink ref="C51" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId38"/>
 </worksheet>
 </file>